--- a/Outputs/pred_sead_n_plots.xlsx
+++ b/Outputs/pred_sead_n_plots.xlsx
@@ -1500,7 +1500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1519,10 +1519,10 @@
         <v>36982</v>
       </c>
       <c r="B2">
-        <v>25.2430323125545</v>
+        <v>25.0888318845458</v>
       </c>
       <c r="C2">
-        <v>-1.972594099659499</v>
+        <v>-2.072046781879198</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1530,10 +1530,10 @@
         <v>37073</v>
       </c>
       <c r="B3">
-        <v>25.1395166489673</v>
+        <v>23.9001754935268</v>
       </c>
       <c r="C3">
-        <v>-0.1035156635871992</v>
+        <v>-1.188656391019002</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1541,10 +1541,10 @@
         <v>37165</v>
       </c>
       <c r="B4">
-        <v>18.3822524058712</v>
+        <v>19.760642549171</v>
       </c>
       <c r="C4">
-        <v>-6.757264243096103</v>
+        <v>-4.1395329443558</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1552,10 +1552,10 @@
         <v>37257</v>
       </c>
       <c r="B5">
-        <v>19.6887153200992</v>
+        <v>19.7014331187197</v>
       </c>
       <c r="C5">
-        <v>1.306462914228</v>
+        <v>-0.05920943045130045</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1563,10 +1563,10 @@
         <v>37347</v>
       </c>
       <c r="B6">
-        <v>24.6283901506933</v>
+        <v>24.5947114341863</v>
       </c>
       <c r="C6">
-        <v>4.9396748305941</v>
+        <v>4.893278315466603</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1574,10 +1574,10 @@
         <v>37438</v>
       </c>
       <c r="B7">
-        <v>26.9508064647779</v>
+        <v>25.530095402883</v>
       </c>
       <c r="C7">
-        <v>2.322416314084602</v>
+        <v>0.9353839686966978</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1585,10 +1585,10 @@
         <v>37530</v>
       </c>
       <c r="B8">
-        <v>26.0553772932913</v>
+        <v>27.3550108299579</v>
       </c>
       <c r="C8">
-        <v>-0.8954291714866009</v>
+        <v>1.824915427074902</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1596,10 +1596,10 @@
         <v>37622</v>
       </c>
       <c r="B9">
-        <v>32.4907446632632</v>
+        <v>32.7758973319794</v>
       </c>
       <c r="C9">
-        <v>6.4353673699719</v>
+        <v>5.420886502021499</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1607,10 +1607,10 @@
         <v>37712</v>
       </c>
       <c r="B10">
-        <v>27.7159041230101</v>
+        <v>27.6901370022164</v>
       </c>
       <c r="C10">
-        <v>-4.774840540253098</v>
+        <v>-5.085760329763001</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1618,10 +1618,10 @@
         <v>37803</v>
       </c>
       <c r="B11">
-        <v>28.7799679014031</v>
+        <v>27.0702783620033</v>
       </c>
       <c r="C11">
-        <v>1.064063778392999</v>
+        <v>-0.6198586402130992</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1629,10 +1629,10 @@
         <v>37895</v>
       </c>
       <c r="B12">
-        <v>29.3229201738269</v>
+        <v>30.6143044056086</v>
       </c>
       <c r="C12">
-        <v>0.5429522724238005</v>
+        <v>3.544026043605299</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1640,10 +1640,10 @@
         <v>37987</v>
       </c>
       <c r="B13">
-        <v>33.3683562867767</v>
+        <v>33.981369903047</v>
       </c>
       <c r="C13">
-        <v>4.045436112949801</v>
+        <v>3.367065497438404</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1651,10 +1651,10 @@
         <v>38078</v>
       </c>
       <c r="B14">
-        <v>36.3786445938766</v>
+        <v>36.3627689642755</v>
       </c>
       <c r="C14">
-        <v>3.010288307099898</v>
+        <v>2.3813990612285</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1662,10 +1662,10 @@
         <v>38169</v>
       </c>
       <c r="B15">
-        <v>41.6666790749155</v>
+        <v>39.5914024679523</v>
       </c>
       <c r="C15">
-        <v>5.288034481038899</v>
+        <v>3.228633503676797</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1673,10 +1673,10 @@
         <v>38261</v>
       </c>
       <c r="B16">
-        <v>44.7615917641314</v>
+        <v>45.9602192296821</v>
       </c>
       <c r="C16">
-        <v>3.094912689215903</v>
+        <v>6.368816761729803</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1684,10 +1684,10 @@
         <v>38353</v>
       </c>
       <c r="B17">
-        <v>46.3645269918358</v>
+        <v>47.733339374262</v>
       </c>
       <c r="C17">
-        <v>1.6029352277044</v>
+        <v>1.773120144579899</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1695,10 +1695,10 @@
         <v>38443</v>
       </c>
       <c r="B18">
-        <v>48.6967057691895</v>
+        <v>48.1424755373912</v>
       </c>
       <c r="C18">
-        <v>2.332178777353697</v>
+        <v>0.4091361631291974</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1706,10 +1706,10 @@
         <v>38534</v>
       </c>
       <c r="B19">
-        <v>59.6926895411051</v>
+        <v>57.6011080298539</v>
       </c>
       <c r="C19">
-        <v>10.9959837719156</v>
+        <v>9.458632492462698</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1717,10 +1717,10 @@
         <v>38626</v>
       </c>
       <c r="B20">
-        <v>55.9826342875237</v>
+        <v>56.8797358708151</v>
       </c>
       <c r="C20">
-        <v>-3.710055253581402</v>
+        <v>-0.7213721590388005</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1728,10 +1728,10 @@
         <v>38718</v>
       </c>
       <c r="B21">
-        <v>58.6052722805467</v>
+        <v>60.8675373210953</v>
       </c>
       <c r="C21">
-        <v>2.622637993022998</v>
+        <v>3.987801450280202</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1739,10 +1739,10 @@
         <v>38808</v>
       </c>
       <c r="B22">
-        <v>66.1389737148905</v>
+        <v>64.9423526705511</v>
       </c>
       <c r="C22">
-        <v>7.533701434343797</v>
+        <v>4.074815349455804</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1750,10 +1750,10 @@
         <v>38899</v>
       </c>
       <c r="B23">
-        <v>66.2943788265292</v>
+        <v>64.3585357449635</v>
       </c>
       <c r="C23">
-        <v>0.1554051116387001</v>
+        <v>-0.5838169255875982</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1761,10 +1761,10 @@
         <v>38991</v>
       </c>
       <c r="B24">
-        <v>55.4372656988115</v>
+        <v>56.0060792538684</v>
       </c>
       <c r="C24">
-        <v>-10.8571131277177</v>
+        <v>-8.352456491095104</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1772,10 +1772,10 @@
         <v>39083</v>
       </c>
       <c r="B25">
-        <v>54.3523353918359</v>
+        <v>57.3730617943199</v>
       </c>
       <c r="C25">
-        <v>-1.0849303069756</v>
+        <v>1.366982540451502</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1783,10 +1783,10 @@
         <v>39173</v>
       </c>
       <c r="B26">
-        <v>60.3234404717646</v>
+        <v>58.2986736640038</v>
       </c>
       <c r="C26">
-        <v>5.971105079928698</v>
+        <v>0.9256118696838982</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1794,10 +1794,10 @@
         <v>39264</v>
       </c>
       <c r="B27">
-        <v>71.8866100648726</v>
+        <v>70.5395690859816</v>
       </c>
       <c r="C27">
-        <v>11.563169593108</v>
+        <v>12.2408954219778</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1805,10 +1805,10 @@
         <v>39356</v>
       </c>
       <c r="B28">
-        <v>87.4683314017428</v>
+        <v>87.7516048242551</v>
       </c>
       <c r="C28">
-        <v>15.5817213368702</v>
+        <v>17.2120357382735</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1816,10 +1816,10 @@
         <v>39448</v>
       </c>
       <c r="B29">
-        <v>94.6716992850036</v>
+        <v>97.866076212549</v>
       </c>
       <c r="C29">
-        <v>7.203367883260796</v>
+        <v>10.11447138829391</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1827,10 +1827,10 @@
         <v>39539</v>
       </c>
       <c r="B30">
-        <v>120.996788040879</v>
+        <v>118.421738087536</v>
       </c>
       <c r="C30">
-        <v>26.3250887558754</v>
+        <v>20.555661874987</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1838,10 +1838,10 @@
         <v>39630</v>
       </c>
       <c r="B31">
-        <v>114.543170529841</v>
+        <v>114.055430587809</v>
       </c>
       <c r="C31">
-        <v>-6.45361751103799</v>
+        <v>-4.366307499727</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1849,10 +1849,10 @@
         <v>39722</v>
       </c>
       <c r="B32">
-        <v>55.0985460493679</v>
+        <v>55.1248006024345</v>
       </c>
       <c r="C32">
-        <v>-59.44462448047311</v>
+        <v>-58.9306299853745</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1860,10 +1860,10 @@
         <v>39814</v>
       </c>
       <c r="B33">
-        <v>36.3624307113935</v>
+        <v>39.2283365667754</v>
       </c>
       <c r="C33">
-        <v>-18.7361153379744</v>
+        <v>-15.8964640356591</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1871,10 +1871,10 @@
         <v>39904</v>
       </c>
       <c r="B34">
-        <v>55.2596736229461</v>
+        <v>52.4626018211613</v>
       </c>
       <c r="C34">
-        <v>18.8972429115526</v>
+        <v>13.2342652543859</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1882,10 +1882,10 @@
         <v>39995</v>
       </c>
       <c r="B35">
-        <v>63.6162219967</v>
+        <v>63.8577722078954</v>
       </c>
       <c r="C35">
-        <v>8.356548373753895</v>
+        <v>11.3951703867341</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1893,10 +1893,10 @@
         <v>40087</v>
       </c>
       <c r="B36">
-        <v>72.565093245732</v>
+        <v>72.4827261923059</v>
       </c>
       <c r="C36">
-        <v>8.948871249032003</v>
+        <v>8.624953984410503</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1904,10 +1904,10 @@
         <v>40179</v>
       </c>
       <c r="B37">
-        <v>75.0320737538562</v>
+        <v>77.3461912226628</v>
       </c>
       <c r="C37">
-        <v>2.466980508124195</v>
+        <v>4.863465030356892</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1915,10 +1915,10 @@
         <v>40269</v>
       </c>
       <c r="B38">
-        <v>73.8790425007122</v>
+        <v>71.4565421766348</v>
       </c>
       <c r="C38">
-        <v>-1.153031253143993</v>
+        <v>-5.889649046027998</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1926,10 +1926,10 @@
         <v>40360</v>
       </c>
       <c r="B39">
-        <v>72.03679624591391</v>
+        <v>72.1087266000913</v>
       </c>
       <c r="C39">
-        <v>-1.842246254798297</v>
+        <v>0.6521844234565037</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1937,10 +1937,10 @@
         <v>40452</v>
       </c>
       <c r="B40">
-        <v>80.84022488576851</v>
+        <v>81.2238715221286</v>
       </c>
       <c r="C40">
-        <v>8.803428639854602</v>
+        <v>9.115144922037302</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1948,10 +1948,10 @@
         <v>40544</v>
       </c>
       <c r="B41">
-        <v>88.05062948502879</v>
+        <v>89.741216399519</v>
       </c>
       <c r="C41">
-        <v>7.210404599260286</v>
+        <v>8.5173448773904</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1959,10 +1959,10 @@
         <v>40634</v>
       </c>
       <c r="B42">
-        <v>97.7333392716331</v>
+        <v>95.9360098125598</v>
       </c>
       <c r="C42">
-        <v>9.682709786604306</v>
+        <v>6.194793413040799</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1970,10 +1970,10 @@
         <v>40725</v>
       </c>
       <c r="B43">
-        <v>85.1338538961956</v>
+        <v>84.30156770920151</v>
       </c>
       <c r="C43">
-        <v>-12.5994853754375</v>
+        <v>-11.6344421033583</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1981,10 +1981,10 @@
         <v>40817</v>
       </c>
       <c r="B44">
-        <v>90.5784973002169</v>
+        <v>91.743916582873</v>
       </c>
       <c r="C44">
-        <v>5.444643404021292</v>
+        <v>7.442348873671492</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1992,10 +1992,10 @@
         <v>40909</v>
       </c>
       <c r="B45">
-        <v>98.4649673429556</v>
+        <v>99.9844077112913</v>
       </c>
       <c r="C45">
-        <v>7.886470042738708</v>
+        <v>8.240491128418299</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2003,10 +2003,10 @@
         <v>41000</v>
       </c>
       <c r="B46">
-        <v>85.8305072514847</v>
+        <v>84.3608431143339</v>
       </c>
       <c r="C46">
-        <v>-12.6344600914709</v>
+        <v>-15.62356459695739</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2014,10 +2014,10 @@
         <v>41091</v>
       </c>
       <c r="B47">
-        <v>86.3414579544052</v>
+        <v>84.5295062950686</v>
       </c>
       <c r="C47">
-        <v>0.5109507029204963</v>
+        <v>0.168663180734697</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2025,10 +2025,10 @@
         <v>41183</v>
       </c>
       <c r="B48">
-        <v>80.96623192563</v>
+        <v>82.7251604035438</v>
       </c>
       <c r="C48">
-        <v>-5.375226028775202</v>
+        <v>-1.804345891524804</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2036,10 +2036,10 @@
         <v>41275</v>
       </c>
       <c r="B49">
-        <v>82.8301974017957</v>
+        <v>84.6627947919671</v>
       </c>
       <c r="C49">
-        <v>1.863965476165703</v>
+        <v>1.937634388423305</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2047,10 +2047,10 @@
         <v>41365</v>
       </c>
       <c r="B50">
-        <v>90.3226157336226</v>
+        <v>88.7416909268824</v>
       </c>
       <c r="C50">
-        <v>7.492418331826897</v>
+        <v>4.078896134915297</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2058,10 +2058,10 @@
         <v>41456</v>
       </c>
       <c r="B51">
-        <v>103.090646799398</v>
+        <v>100.720480615556</v>
       </c>
       <c r="C51">
-        <v>12.7680310657754</v>
+        <v>11.9787896886736</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2069,10 +2069,10 @@
         <v>41548</v>
       </c>
       <c r="B52">
-        <v>92.36333652852051</v>
+        <v>94.3235292011919</v>
       </c>
       <c r="C52">
-        <v>-10.7273102708775</v>
+        <v>-6.396951414364096</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2080,10 +2080,10 @@
         <v>41640</v>
       </c>
       <c r="B53">
-        <v>92.38481791301589</v>
+        <v>94.6259837238626</v>
       </c>
       <c r="C53">
-        <v>0.02148138449538806</v>
+        <v>0.3024545226707005</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2091,10 +2091,10 @@
         <v>41730</v>
       </c>
       <c r="B54">
-        <v>93.06246361657379</v>
+        <v>91.2666376337389</v>
       </c>
       <c r="C54">
-        <v>0.6776457035579</v>
+        <v>-3.359346090123708</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2102,10 +2102,10 @@
         <v>41821</v>
       </c>
       <c r="B55">
-        <v>86.15911506502729</v>
+        <v>83.7772591320138</v>
       </c>
       <c r="C55">
-        <v>-6.9033485515465</v>
+        <v>-7.489378501725099</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2113,10 +2113,10 @@
         <v>41913</v>
       </c>
       <c r="B56">
-        <v>65.25096532811411</v>
+        <v>67.16676501328951</v>
       </c>
       <c r="C56">
-        <v>-20.90814973691319</v>
+        <v>-16.61049411872429</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2124,10 +2124,10 @@
         <v>42005</v>
       </c>
       <c r="B57">
-        <v>42.6970530598461</v>
+        <v>44.8399717348961</v>
       </c>
       <c r="C57">
-        <v>-22.55391226826801</v>
+        <v>-22.3267932783934</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2135,10 +2135,10 @@
         <v>42095</v>
       </c>
       <c r="B58">
-        <v>52.1009529413839</v>
+        <v>50.2535873012267</v>
       </c>
       <c r="C58">
-        <v>9.403899881537804</v>
+        <v>5.413615566330598</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2146,10 +2146,10 @@
         <v>42186</v>
       </c>
       <c r="B59">
-        <v>43.3637430887518</v>
+        <v>41.5147108270384</v>
       </c>
       <c r="C59">
-        <v>-8.737209852632105</v>
+        <v>-8.738876474188302</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2157,10 +2157,10 @@
         <v>42278</v>
       </c>
       <c r="B60">
-        <v>38.1072449000917</v>
+        <v>39.8118250970731</v>
       </c>
       <c r="C60">
-        <v>-5.256498188660096</v>
+        <v>-1.702885729965303</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2168,10 +2168,10 @@
         <v>42370</v>
       </c>
       <c r="B61">
-        <v>28.8601278238678</v>
+        <v>30.5017610632753</v>
       </c>
       <c r="C61">
-        <v>-9.247117076223901</v>
+        <v>-9.310064033797797</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2179,10 +2179,10 @@
         <v>42461</v>
       </c>
       <c r="B62">
-        <v>40.9930462740026</v>
+        <v>39.0518839251241</v>
       </c>
       <c r="C62">
-        <v>12.1329184501348</v>
+        <v>8.550122861848802</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2190,10 +2190,10 @@
         <v>42552</v>
       </c>
       <c r="B63">
-        <v>41.072367918394</v>
+        <v>40.4203009043113</v>
       </c>
       <c r="C63">
-        <v>0.0793216443913991</v>
+        <v>1.368416979187195</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2201,10 +2201,10 @@
         <v>42644</v>
       </c>
       <c r="B64">
-        <v>45.4731009389608</v>
+        <v>46.6403565109247</v>
       </c>
       <c r="C64">
-        <v>4.400733020566797</v>
+        <v>6.2200556066134</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2212,10 +2212,10 @@
         <v>42736</v>
       </c>
       <c r="B65">
-        <v>48.7456318873273</v>
+        <v>49.582965001214</v>
       </c>
       <c r="C65">
-        <v>3.272530948366501</v>
+        <v>2.942608490289302</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2223,10 +2223,10 @@
         <v>42826</v>
       </c>
       <c r="B66">
-        <v>43.8404805933374</v>
+        <v>42.0767987776674</v>
       </c>
       <c r="C66">
-        <v>-4.905151293989896</v>
+        <v>-7.5061662235466</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2234,10 +2234,10 @@
         <v>42917</v>
       </c>
       <c r="B67">
-        <v>44.6556176390902</v>
+        <v>45.089168799234</v>
       </c>
       <c r="C67">
-        <v>0.8151370457527989</v>
+        <v>3.012370021566603</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2245,10 +2245,10 @@
         <v>43009</v>
       </c>
       <c r="B68">
-        <v>52.1129490808625</v>
+        <v>53.0030644315088</v>
       </c>
       <c r="C68">
-        <v>7.457331441772297</v>
+        <v>7.913895632274794</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2256,10 +2256,10 @@
         <v>43101</v>
       </c>
       <c r="B69">
-        <v>60.2733300455926</v>
+        <v>60.0520755354638</v>
       </c>
       <c r="C69">
-        <v>8.160380964730102</v>
+        <v>7.049011103955003</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2267,10 +2267,10 @@
         <v>43191</v>
       </c>
       <c r="B70">
-        <v>60.5405758917433</v>
+        <v>59.1545683597686</v>
       </c>
       <c r="C70">
-        <v>0.2672458461507006</v>
+        <v>-0.8975071756952033</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2278,10 +2278,10 @@
         <v>43282</v>
       </c>
       <c r="B71">
-        <v>56.1862522603265</v>
+        <v>57.2933557410507</v>
       </c>
       <c r="C71">
-        <v>-4.354323631416804</v>
+        <v>-1.861212618717893</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2289,10 +2289,10 @@
         <v>43374</v>
       </c>
       <c r="B72">
-        <v>47.0496718820951</v>
+        <v>47.9971482537867</v>
       </c>
       <c r="C72">
-        <v>-9.1365803782314</v>
+        <v>-9.296207487264006</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2300,10 +2300,10 @@
         <v>43466</v>
       </c>
       <c r="B73">
-        <v>48.2998665301016</v>
+        <v>47.2599537611237</v>
       </c>
       <c r="C73">
-        <v>1.250194648006506</v>
+        <v>-0.7371944926630007</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2311,10 +2311,10 @@
         <v>43556</v>
       </c>
       <c r="B74">
-        <v>54.8629905987944</v>
+        <v>53.6136809989574</v>
       </c>
       <c r="C74">
-        <v>6.563124068692794</v>
+        <v>6.353727237833702</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2322,10 +2322,10 @@
         <v>43647</v>
       </c>
       <c r="B75">
-        <v>53.0596700573114</v>
+        <v>54.3655607338692</v>
       </c>
       <c r="C75">
-        <v>-1.803320541482996</v>
+        <v>0.7518797349118032</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2333,10 +2333,10 @@
         <v>43739</v>
       </c>
       <c r="B76">
-        <v>55.2151417741463</v>
+        <v>56.5664305368948</v>
       </c>
       <c r="C76">
-        <v>2.155471716834903</v>
+        <v>2.200869803025597</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2344,10 +2344,10 @@
         <v>43831</v>
       </c>
       <c r="B77">
-        <v>44.8285959278919</v>
+        <v>43.4657588820279</v>
       </c>
       <c r="C77">
-        <v>-10.38654584625441</v>
+        <v>-13.1006716548669</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2355,10 +2355,10 @@
         <v>43922</v>
       </c>
       <c r="B78">
-        <v>21.8810359865692</v>
+        <v>20.3769262528916</v>
       </c>
       <c r="C78">
-        <v>-22.9475599413227</v>
+        <v>-23.0888326291363</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2366,10 +2366,10 @@
         <v>44013</v>
       </c>
       <c r="B79">
-        <v>38.4500736107354</v>
+        <v>39.8119738613091</v>
       </c>
       <c r="C79">
-        <v>16.5690376241662</v>
+        <v>19.4350476084175</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2377,10 +2377,10 @@
         <v>44105</v>
       </c>
       <c r="B80">
-        <v>40.0710022654658</v>
+        <v>41.660168537478</v>
       </c>
       <c r="C80">
-        <v>1.620928654730399</v>
+        <v>1.848194676168902</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2388,10 +2388,10 @@
         <v>44197</v>
       </c>
       <c r="B81">
-        <v>56.5249213101973</v>
+        <v>55.3647698263721</v>
       </c>
       <c r="C81">
-        <v>16.4539190447315</v>
+        <v>13.7046012888941</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2399,10 +2399,10 @@
         <v>44287</v>
       </c>
       <c r="B82">
-        <v>64.6132599431059</v>
+        <v>62.7488686123148</v>
       </c>
       <c r="C82">
-        <v>8.088338632908602</v>
+        <v>7.384098785942705</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2410,10 +2410,10 @@
         <v>44378</v>
       </c>
       <c r="B83">
-        <v>69.1676445756398</v>
+        <v>70.32534447607389</v>
       </c>
       <c r="C83">
-        <v>4.554384632533896</v>
+        <v>7.576475863759093</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2421,10 +2421,10 @@
         <v>44470</v>
       </c>
       <c r="B84">
-        <v>76.1956009378779</v>
+        <v>78.0171516672919</v>
       </c>
       <c r="C84">
-        <v>7.0279563622381</v>
+        <v>7.691807191218004</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2432,10 +2432,10 @@
         <v>44562</v>
       </c>
       <c r="B85">
-        <v>94.10111322761961</v>
+        <v>93.2998266941089</v>
       </c>
       <c r="C85">
-        <v>17.90551228974171</v>
+        <v>15.282675026817</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2443,10 +2443,10 @@
         <v>44652</v>
       </c>
       <c r="B86">
-        <v>109.638960875086</v>
+        <v>107.532706936606</v>
       </c>
       <c r="C86">
-        <v>15.53784764746639</v>
+        <v>14.2328802424971</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2454,10 +2454,10 @@
         <v>44743</v>
       </c>
       <c r="B87">
-        <v>93.4024681336689</v>
+        <v>94.20035136665329</v>
       </c>
       <c r="C87">
-        <v>-16.23649274141709</v>
+        <v>-13.33235556995271</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2465,10 +2465,10 @@
         <v>44835</v>
       </c>
       <c r="B88">
-        <v>82.7092463468517</v>
+        <v>84.69540436522691</v>
       </c>
       <c r="C88">
-        <v>-10.6932217868172</v>
+        <v>-9.504947001426387</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2476,10 +2476,10 @@
         <v>44927</v>
       </c>
       <c r="B89">
-        <v>74.9888844768809</v>
+        <v>74.607937565871</v>
       </c>
       <c r="C89">
-        <v>-7.720361869970802</v>
+        <v>-10.08746679935591</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2487,10 +2487,43 @@
         <v>45017</v>
       </c>
       <c r="B90">
-        <v>74.403726447021</v>
+        <v>72.1315549783874</v>
       </c>
       <c r="C90">
-        <v>-0.5851580298598975</v>
+        <v>-2.476382587483599</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B91">
+        <v>27.6248361979644</v>
+      </c>
+      <c r="C91">
+        <v>-44.506718780423</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B92">
+        <v>27.2968611059442</v>
+      </c>
+      <c r="C92">
+        <v>-0.3279750920201998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B93">
+        <v>25.25484954969</v>
+      </c>
+      <c r="C93">
+        <v>-2.042011556254199</v>
       </c>
     </row>
   </sheetData>
@@ -2501,7 +2534,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3494,6 +3527,39 @@
         <v>-1.14295092104977</v>
       </c>
     </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B91">
+        <v>0.654581027145683</v>
+      </c>
+      <c r="C91">
+        <v>0.501906055683043</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B92">
+        <v>1.48685646751813</v>
+      </c>
+      <c r="C92">
+        <v>0.8322754403724469</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B93">
+        <v>0.845143290628937</v>
+      </c>
+      <c r="C93">
+        <v>-0.6417131768891929</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3502,7 +3568,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4495,6 +4561,39 @@
         <v>440.9066615919</v>
       </c>
     </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B91">
+        <v>27721.7119602669</v>
+      </c>
+      <c r="C91">
+        <v>-102.3420950051986</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B92">
+        <v>28619.0486889595</v>
+      </c>
+      <c r="C92">
+        <v>897.3367286926004</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B93">
+        <v>29364.6523511456</v>
+      </c>
+      <c r="C93">
+        <v>745.6036621860985</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4503,7 +4602,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5496,6 +5595,39 @@
         <v>150.2673332629056</v>
       </c>
     </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B91">
+        <v>41610.6814086065</v>
+      </c>
+      <c r="C91">
+        <v>382.7693087652951</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B92">
+        <v>41977.8019390072</v>
+      </c>
+      <c r="C92">
+        <v>367.1205304007017</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B93">
+        <v>41931.872883468</v>
+      </c>
+      <c r="C93">
+        <v>-45.92905553919991</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5504,7 +5636,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6235,6 +6367,30 @@
         <v>0.116619597393803</v>
       </c>
     </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B92">
+        <v>0.640840422882774</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B93">
+        <v>0.544178463322183</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B94">
+        <v>-0.127283579424972</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6243,7 +6399,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6974,6 +7130,30 @@
         <v>1.12491436627348</v>
       </c>
     </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B92">
+        <v>37.1180594772557</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B93">
+        <v>36.1964111035564</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B94">
+        <v>32.7296469931388</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6982,7 +7162,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7713,6 +7893,30 @@
         <v>3.92561623724614</v>
       </c>
     </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B92">
+        <v>35.8228864280561</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B93">
+        <v>34.0192807332221</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B94">
+        <v>24.1286905723157</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7721,7 +7925,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8452,6 +8656,30 @@
         <v>3.92561623724614</v>
       </c>
     </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B92">
+        <v>35.8228864280561</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B93">
+        <v>34.0192807332221</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B94">
+        <v>24.1286905723157</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8460,7 +8688,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9453,6 +9681,39 @@
         <v>-0.8003673394729389</v>
       </c>
     </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B91">
+        <v>1.29178722732669</v>
+      </c>
+      <c r="C91">
+        <v>0.9911922396440089</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B92">
+        <v>1.63361377835858</v>
+      </c>
+      <c r="C92">
+        <v>0.3418265510318901</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B93">
+        <v>1.35832784862313</v>
+      </c>
+      <c r="C93">
+        <v>-0.27528592973545</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9461,7 +9722,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10192,6 +10453,30 @@
         <v>-4.28450393800537</v>
       </c>
     </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B92">
+        <v>-1.48517221094902</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B93">
+        <v>1.06819365164978</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B94">
+        <v>3.8082068497764</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10200,7 +10485,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10931,6 +11216,30 @@
         <v>-4.28450393800537</v>
       </c>
     </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B92">
+        <v>-1.48517221094902</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B93">
+        <v>1.06819365164978</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B94">
+        <v>3.8082068497764</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10939,7 +11248,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11932,6 +12241,39 @@
         <v>-4.78393816894291</v>
       </c>
     </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B91">
+        <v>28.8550851082635</v>
+      </c>
+      <c r="C91">
+        <v>-42.5283564020681</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B92">
+        <v>30.0368520900519</v>
+      </c>
+      <c r="C92">
+        <v>1.181766981788403</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B93">
+        <v>27.1125223199879</v>
+      </c>
+      <c r="C93">
+        <v>-2.924329770064002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11940,7 +12282,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12671,6 +13013,30 @@
         <v>1.54743249398245</v>
       </c>
     </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B92">
+        <v>0.838972748091442</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B93">
+        <v>0.627166772988395</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B94">
+        <v>-0.347597742695961</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12679,7 +13045,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13410,6 +13776,30 @@
         <v>1.35370248036098</v>
       </c>
     </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B92">
+        <v>2.09020182481131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B93">
+        <v>1.90952483424169</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B94">
+        <v>2.10906307006702</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13418,7 +13808,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14411,6 +14801,39 @@
         <v>54.53841468408018</v>
       </c>
     </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B91">
+        <v>3954.23590009178</v>
+      </c>
+      <c r="C91">
+        <v>62.18860119245983</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B92">
+        <v>3977.99070929732</v>
+      </c>
+      <c r="C92">
+        <v>23.75480920553991</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B93">
+        <v>3969.42318735517</v>
+      </c>
+      <c r="C93">
+        <v>-8.567521942150051</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14419,7 +14842,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15412,6 +15835,39 @@
         <v>0.9221437219400799</v>
       </c>
     </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B91">
+        <v>4.78358312682778</v>
+      </c>
+      <c r="C91">
+        <v>1.77993466415412</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B92">
+        <v>4.25278481246589</v>
+      </c>
+      <c r="C92">
+        <v>-0.5307983143618902</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B93">
+        <v>3.74854091417704</v>
+      </c>
+      <c r="C93">
+        <v>-0.5042438982888502</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15420,7 +15876,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL90"/>
+  <dimension ref="A1:AL93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15544,10 +16000,10 @@
         <v>36982</v>
       </c>
       <c r="B2">
-        <v>25.2430323125545</v>
+        <v>25.0888318845458</v>
       </c>
       <c r="C2">
-        <v>-1.972594099659499</v>
+        <v>-2.072046781879198</v>
       </c>
       <c r="D2">
         <v>27.6996875410382</v>
@@ -15651,10 +16107,10 @@
         <v>37073</v>
       </c>
       <c r="B3">
-        <v>25.1395166489673</v>
+        <v>23.9001754935268</v>
       </c>
       <c r="C3">
-        <v>-0.1035156635871992</v>
+        <v>-1.188656391019002</v>
       </c>
       <c r="D3">
         <v>25.7303330036404</v>
@@ -15758,10 +16214,10 @@
         <v>37165</v>
       </c>
       <c r="B4">
-        <v>18.3822524058712</v>
+        <v>19.760642549171</v>
       </c>
       <c r="C4">
-        <v>-6.757264243096103</v>
+        <v>-4.1395329443558</v>
       </c>
       <c r="D4">
         <v>21.387950074778</v>
@@ -15874,10 +16330,10 @@
         <v>37257</v>
       </c>
       <c r="B5">
-        <v>19.6887153200992</v>
+        <v>19.7014331187197</v>
       </c>
       <c r="C5">
-        <v>1.306462914228</v>
+        <v>-0.05920943045130045</v>
       </c>
       <c r="D5">
         <v>21.8150405020556</v>
@@ -15990,10 +16446,10 @@
         <v>37347</v>
       </c>
       <c r="B6">
-        <v>24.6283901506933</v>
+        <v>24.5947114341863</v>
       </c>
       <c r="C6">
-        <v>4.9396748305941</v>
+        <v>4.893278315466603</v>
       </c>
       <c r="D6">
         <v>26.1298516661036</v>
@@ -16106,10 +16562,10 @@
         <v>37438</v>
       </c>
       <c r="B7">
-        <v>26.9508064647779</v>
+        <v>25.530095402883</v>
       </c>
       <c r="C7">
-        <v>2.322416314084602</v>
+        <v>0.9353839686966978</v>
       </c>
       <c r="D7">
         <v>27.2575052295097</v>
@@ -16222,10 +16678,10 @@
         <v>37530</v>
       </c>
       <c r="B8">
-        <v>26.0553772932913</v>
+        <v>27.3550108299579</v>
       </c>
       <c r="C8">
-        <v>-0.8954291714866009</v>
+        <v>1.824915427074902</v>
       </c>
       <c r="D8">
         <v>29.1486202936343</v>
@@ -16338,10 +16794,10 @@
         <v>37622</v>
       </c>
       <c r="B9">
-        <v>32.4907446632632</v>
+        <v>32.7758973319794</v>
       </c>
       <c r="C9">
-        <v>6.4353673699719</v>
+        <v>5.420886502021499</v>
       </c>
       <c r="D9">
         <v>34.468131891259</v>
@@ -16454,10 +16910,10 @@
         <v>37712</v>
       </c>
       <c r="B10">
-        <v>27.7159041230101</v>
+        <v>27.6901370022164</v>
       </c>
       <c r="C10">
-        <v>-4.774840540253098</v>
+        <v>-5.085760329763001</v>
       </c>
       <c r="D10">
         <v>28.8785010901799</v>
@@ -16570,10 +17026,10 @@
         <v>37803</v>
       </c>
       <c r="B11">
-        <v>28.7799679014031</v>
+        <v>27.0702783620033</v>
       </c>
       <c r="C11">
-        <v>1.064063778392999</v>
+        <v>-0.6198586402130992</v>
       </c>
       <c r="D11">
         <v>28.8704130680228</v>
@@ -16686,10 +17142,10 @@
         <v>37895</v>
       </c>
       <c r="B12">
-        <v>29.3229201738269</v>
+        <v>30.6143044056086</v>
       </c>
       <c r="C12">
-        <v>0.5429522724238005</v>
+        <v>3.544026043605299</v>
       </c>
       <c r="D12">
         <v>32.1304097216186</v>
@@ -16802,10 +17258,10 @@
         <v>37987</v>
       </c>
       <c r="B13">
-        <v>33.3683562867767</v>
+        <v>33.981369903047</v>
       </c>
       <c r="C13">
-        <v>4.045436112949801</v>
+        <v>3.367065497438404</v>
       </c>
       <c r="D13">
         <v>35.9302531710699</v>
@@ -16918,10 +17374,10 @@
         <v>38078</v>
       </c>
       <c r="B14">
-        <v>36.3786445938766</v>
+        <v>36.3627689642755</v>
       </c>
       <c r="C14">
-        <v>3.010288307099898</v>
+        <v>2.3813990612285</v>
       </c>
       <c r="D14">
         <v>38.2069342360142</v>
@@ -17034,10 +17490,10 @@
         <v>38169</v>
       </c>
       <c r="B15">
-        <v>41.6666790749155</v>
+        <v>39.5914024679523</v>
       </c>
       <c r="C15">
-        <v>5.288034481038899</v>
+        <v>3.228633503676797</v>
       </c>
       <c r="D15">
         <v>42.1987252042658</v>
@@ -17150,10 +17606,10 @@
         <v>38261</v>
       </c>
       <c r="B16">
-        <v>44.7615917641314</v>
+        <v>45.9602192296821</v>
       </c>
       <c r="C16">
-        <v>3.094912689215903</v>
+        <v>6.368816761729803</v>
       </c>
       <c r="D16">
         <v>49.2663828164636</v>
@@ -17266,10 +17722,10 @@
         <v>38353</v>
       </c>
       <c r="B17">
-        <v>46.3645269918358</v>
+        <v>47.733339374262</v>
       </c>
       <c r="C17">
-        <v>1.6029352277044</v>
+        <v>1.773120144579899</v>
       </c>
       <c r="D17">
         <v>50.9592150089004</v>
@@ -17382,10 +17838,10 @@
         <v>38443</v>
       </c>
       <c r="B18">
-        <v>48.6967057691895</v>
+        <v>48.1424755373912</v>
       </c>
       <c r="C18">
-        <v>2.332178777353697</v>
+        <v>0.4091361631291974</v>
       </c>
       <c r="D18">
         <v>52.5023046611078</v>
@@ -17498,10 +17954,10 @@
         <v>38534</v>
       </c>
       <c r="B19">
-        <v>59.6926895411051</v>
+        <v>57.6011080298539</v>
       </c>
       <c r="C19">
-        <v>10.9959837719156</v>
+        <v>9.458632492462698</v>
       </c>
       <c r="D19">
         <v>61.4067297133024</v>
@@ -17614,10 +18070,10 @@
         <v>38626</v>
       </c>
       <c r="B20">
-        <v>55.9826342875237</v>
+        <v>56.8797358708151</v>
       </c>
       <c r="C20">
-        <v>-3.710055253581402</v>
+        <v>-0.7213721590388005</v>
       </c>
       <c r="D20">
         <v>60.8292151148232</v>
@@ -17730,10 +18186,10 @@
         <v>38718</v>
       </c>
       <c r="B21">
-        <v>58.6052722805467</v>
+        <v>60.8675373210953</v>
       </c>
       <c r="C21">
-        <v>2.622637993022998</v>
+        <v>3.987801450280202</v>
       </c>
       <c r="D21">
         <v>65.2179353930856</v>
@@ -17846,10 +18302,10 @@
         <v>38808</v>
       </c>
       <c r="B22">
-        <v>66.1389737148905</v>
+        <v>64.9423526705511</v>
       </c>
       <c r="C22">
-        <v>7.533701434343797</v>
+        <v>4.074815349455804</v>
       </c>
       <c r="D22">
         <v>69.3218401156596</v>
@@ -17962,10 +18418,10 @@
         <v>38899</v>
       </c>
       <c r="B23">
-        <v>66.2943788265292</v>
+        <v>64.3585357449635</v>
       </c>
       <c r="C23">
-        <v>0.1554051116387001</v>
+        <v>-0.5838169255875982</v>
       </c>
       <c r="D23">
         <v>68.6640706562731</v>
@@ -18078,10 +18534,10 @@
         <v>38991</v>
       </c>
       <c r="B24">
-        <v>55.4372656988115</v>
+        <v>56.0060792538684</v>
       </c>
       <c r="C24">
-        <v>-10.8571131277177</v>
+        <v>-8.352456491095104</v>
       </c>
       <c r="D24">
         <v>60.7021739301666</v>
@@ -18194,10 +18650,10 @@
         <v>39083</v>
       </c>
       <c r="B25">
-        <v>54.3523353918359</v>
+        <v>57.3730617943199</v>
       </c>
       <c r="C25">
-        <v>-1.0849303069756</v>
+        <v>1.366982540451502</v>
       </c>
       <c r="D25">
         <v>60.546301477278</v>
@@ -18310,10 +18766,10 @@
         <v>39173</v>
       </c>
       <c r="B26">
-        <v>60.3234404717646</v>
+        <v>58.2986736640038</v>
       </c>
       <c r="C26">
-        <v>5.971105079928698</v>
+        <v>0.9256118696838982</v>
       </c>
       <c r="D26">
         <v>63.2338736222928</v>
@@ -18426,10 +18882,10 @@
         <v>39264</v>
       </c>
       <c r="B27">
-        <v>71.8866100648726</v>
+        <v>70.5395690859816</v>
       </c>
       <c r="C27">
-        <v>11.563169593108</v>
+        <v>12.2408954219778</v>
       </c>
       <c r="D27">
         <v>74.1504831086983</v>
@@ -18542,10 +18998,10 @@
         <v>39356</v>
       </c>
       <c r="B28">
-        <v>87.4683314017428</v>
+        <v>87.7516048242551</v>
       </c>
       <c r="C28">
-        <v>15.5817213368702</v>
+        <v>17.2120357382735</v>
       </c>
       <c r="D28">
         <v>91.3435691783228</v>
@@ -18658,10 +19114,10 @@
         <v>39448</v>
       </c>
       <c r="B29">
-        <v>94.6716992850036</v>
+        <v>97.866076212549</v>
       </c>
       <c r="C29">
-        <v>7.203367883260796</v>
+        <v>10.11447138829391</v>
       </c>
       <c r="D29">
         <v>100.491537286942</v>
@@ -18774,10 +19230,10 @@
         <v>39539</v>
       </c>
       <c r="B30">
-        <v>120.996788040879</v>
+        <v>118.421738087536</v>
       </c>
       <c r="C30">
-        <v>26.3250887558754</v>
+        <v>20.555661874987</v>
       </c>
       <c r="D30">
         <v>121.701844355628</v>
@@ -18890,10 +19346,10 @@
         <v>39630</v>
       </c>
       <c r="B31">
-        <v>114.543170529841</v>
+        <v>114.055430587809</v>
       </c>
       <c r="C31">
-        <v>-6.45361751103799</v>
+        <v>-4.366307499727</v>
       </c>
       <c r="D31">
         <v>117.466144393569</v>
@@ -19006,10 +19462,10 @@
         <v>39722</v>
       </c>
       <c r="B32">
-        <v>55.0985460493679</v>
+        <v>55.1248006024345</v>
       </c>
       <c r="C32">
-        <v>-59.44462448047311</v>
+        <v>-58.9306299853745</v>
       </c>
       <c r="D32">
         <v>58.9360351133532</v>
@@ -19122,10 +19578,10 @@
         <v>39814</v>
       </c>
       <c r="B33">
-        <v>36.3624307113935</v>
+        <v>39.2283365667754</v>
       </c>
       <c r="C33">
-        <v>-18.7361153379744</v>
+        <v>-15.8964640356591</v>
       </c>
       <c r="D33">
         <v>44.9208561397687</v>
@@ -19238,10 +19694,10 @@
         <v>39904</v>
       </c>
       <c r="B34">
-        <v>55.2596736229461</v>
+        <v>52.4626018211613</v>
       </c>
       <c r="C34">
-        <v>18.8972429115526</v>
+        <v>13.2342652543859</v>
       </c>
       <c r="D34">
         <v>57.0161749217999</v>
@@ -19354,10 +19810,10 @@
         <v>39995</v>
       </c>
       <c r="B35">
-        <v>63.6162219967</v>
+        <v>63.8577722078954</v>
       </c>
       <c r="C35">
-        <v>8.356548373753895</v>
+        <v>11.3951703867341</v>
       </c>
       <c r="D35">
         <v>68.3104324788501</v>
@@ -19470,10 +19926,10 @@
         <v>40087</v>
       </c>
       <c r="B36">
-        <v>72.565093245732</v>
+        <v>72.4827261923059</v>
       </c>
       <c r="C36">
-        <v>8.948871249032003</v>
+        <v>8.624953984410503</v>
       </c>
       <c r="D36">
         <v>76.7674494451428</v>
@@ -19586,10 +20042,10 @@
         <v>40179</v>
       </c>
       <c r="B37">
-        <v>75.0320737538562</v>
+        <v>77.3461912226628</v>
       </c>
       <c r="C37">
-        <v>2.466980508124195</v>
+        <v>4.863465030356892</v>
       </c>
       <c r="D37">
         <v>79.8394373783175</v>
@@ -19702,10 +20158,10 @@
         <v>40269</v>
       </c>
       <c r="B38">
-        <v>73.8790425007122</v>
+        <v>71.4565421766348</v>
       </c>
       <c r="C38">
-        <v>-1.153031253143993</v>
+        <v>-5.889649046027998</v>
       </c>
       <c r="D38">
         <v>75.75721258554159</v>
@@ -19818,10 +20274,10 @@
         <v>40360</v>
       </c>
       <c r="B39">
-        <v>72.03679624591391</v>
+        <v>72.1087266000913</v>
       </c>
       <c r="C39">
-        <v>-1.842246254798297</v>
+        <v>0.6521844234565037</v>
       </c>
       <c r="D39">
         <v>76.07280701106041</v>
@@ -19934,10 +20390,10 @@
         <v>40452</v>
       </c>
       <c r="B40">
-        <v>80.84022488576851</v>
+        <v>81.2238715221286</v>
       </c>
       <c r="C40">
-        <v>8.803428639854602</v>
+        <v>9.115144922037302</v>
       </c>
       <c r="D40">
         <v>86.3717732227809</v>
@@ -20050,10 +20506,10 @@
         <v>40544</v>
       </c>
       <c r="B41">
-        <v>88.05062948502879</v>
+        <v>89.741216399519</v>
       </c>
       <c r="C41">
-        <v>7.210404599260286</v>
+        <v>8.5173448773904</v>
       </c>
       <c r="D41">
         <v>93.9527942446221</v>
@@ -20166,10 +20622,10 @@
         <v>40634</v>
       </c>
       <c r="B42">
-        <v>97.7333392716331</v>
+        <v>95.9360098125598</v>
       </c>
       <c r="C42">
-        <v>9.682709786604306</v>
+        <v>6.194793413040799</v>
       </c>
       <c r="D42">
         <v>100.795830931579</v>
@@ -20282,10 +20738,10 @@
         <v>40725</v>
       </c>
       <c r="B43">
-        <v>85.1338538961956</v>
+        <v>84.30156770920151</v>
       </c>
       <c r="C43">
-        <v>-12.5994853754375</v>
+        <v>-11.6344421033583</v>
       </c>
       <c r="D43">
         <v>88.960323851171</v>
@@ -20398,10 +20854,10 @@
         <v>40817</v>
       </c>
       <c r="B44">
-        <v>90.5784973002169</v>
+        <v>91.743916582873</v>
       </c>
       <c r="C44">
-        <v>5.444643404021292</v>
+        <v>7.442348873671492</v>
       </c>
       <c r="D44">
         <v>96.0188819433787</v>
@@ -20514,10 +20970,10 @@
         <v>40909</v>
       </c>
       <c r="B45">
-        <v>98.4649673429556</v>
+        <v>99.9844077112913</v>
       </c>
       <c r="C45">
-        <v>7.886470042738708</v>
+        <v>8.240491128418299</v>
       </c>
       <c r="D45">
         <v>103.093422474625</v>
@@ -20630,10 +21086,10 @@
         <v>41000</v>
       </c>
       <c r="B46">
-        <v>85.8305072514847</v>
+        <v>84.3608431143339</v>
       </c>
       <c r="C46">
-        <v>-12.6344600914709</v>
+        <v>-15.62356459695739</v>
       </c>
       <c r="D46">
         <v>92.3662672334808</v>
@@ -20746,10 +21202,10 @@
         <v>41091</v>
       </c>
       <c r="B47">
-        <v>86.3414579544052</v>
+        <v>84.5295062950686</v>
       </c>
       <c r="C47">
-        <v>0.5109507029204963</v>
+        <v>0.168663180734697</v>
       </c>
       <c r="D47">
         <v>90.4477112606431</v>
@@ -20862,10 +21318,10 @@
         <v>41183</v>
       </c>
       <c r="B48">
-        <v>80.96623192563</v>
+        <v>82.7251604035438</v>
       </c>
       <c r="C48">
-        <v>-5.375226028775202</v>
+        <v>-1.804345891524804</v>
       </c>
       <c r="D48">
         <v>90.41122259054811</v>
@@ -20978,10 +21434,10 @@
         <v>41275</v>
       </c>
       <c r="B49">
-        <v>82.8301974017957</v>
+        <v>84.6627947919671</v>
       </c>
       <c r="C49">
-        <v>1.863965476165703</v>
+        <v>1.937634388423305</v>
       </c>
       <c r="D49">
         <v>95.0687831721014</v>
@@ -21094,10 +21550,10 @@
         <v>41365</v>
       </c>
       <c r="B50">
-        <v>90.3226157336226</v>
+        <v>88.7416909268824</v>
       </c>
       <c r="C50">
-        <v>7.492418331826897</v>
+        <v>4.078896134915297</v>
       </c>
       <c r="D50">
         <v>92.9219866785985</v>
@@ -21210,10 +21666,10 @@
         <v>41456</v>
       </c>
       <c r="B51">
-        <v>103.090646799398</v>
+        <v>100.720480615556</v>
       </c>
       <c r="C51">
-        <v>12.7680310657754</v>
+        <v>11.9787896886736</v>
       </c>
       <c r="D51">
         <v>103.477094232173</v>
@@ -21326,10 +21782,10 @@
         <v>41548</v>
       </c>
       <c r="B52">
-        <v>92.36333652852051</v>
+        <v>94.3235292011919</v>
       </c>
       <c r="C52">
-        <v>-10.7273102708775</v>
+        <v>-6.396951414364096</v>
       </c>
       <c r="D52">
         <v>99.7729467740966</v>
@@ -21442,10 +21898,10 @@
         <v>41640</v>
       </c>
       <c r="B53">
-        <v>92.38481791301589</v>
+        <v>94.6259837238626</v>
       </c>
       <c r="C53">
-        <v>0.02148138449538806</v>
+        <v>0.3024545226707005</v>
       </c>
       <c r="D53">
         <v>100.244855571787</v>
@@ -21558,10 +22014,10 @@
         <v>41730</v>
       </c>
       <c r="B54">
-        <v>93.06246361657379</v>
+        <v>91.2666376337389</v>
       </c>
       <c r="C54">
-        <v>0.6776457035579</v>
+        <v>-3.359346090123708</v>
       </c>
       <c r="D54">
         <v>101.970607884084</v>
@@ -21674,10 +22130,10 @@
         <v>41821</v>
       </c>
       <c r="B55">
-        <v>86.15911506502729</v>
+        <v>83.7772591320138</v>
       </c>
       <c r="C55">
-        <v>-6.9033485515465</v>
+        <v>-7.489378501725099</v>
       </c>
       <c r="D55">
         <v>95.2242857440315</v>
@@ -21790,10 +22246,10 @@
         <v>41913</v>
       </c>
       <c r="B56">
-        <v>65.25096532811411</v>
+        <v>67.16676501328951</v>
       </c>
       <c r="C56">
-        <v>-20.90814973691319</v>
+        <v>-16.61049411872429</v>
       </c>
       <c r="D56">
         <v>75.1756696865839</v>
@@ -21906,10 +22362,10 @@
         <v>42005</v>
       </c>
       <c r="B57">
-        <v>42.6970530598461</v>
+        <v>44.8399717348961</v>
       </c>
       <c r="C57">
-        <v>-22.55391226826801</v>
+        <v>-22.3267932783934</v>
       </c>
       <c r="D57">
         <v>50.6669610406453</v>
@@ -22022,10 +22478,10 @@
         <v>42095</v>
       </c>
       <c r="B58">
-        <v>52.1009529413839</v>
+        <v>50.2535873012267</v>
       </c>
       <c r="C58">
-        <v>9.403899881537804</v>
+        <v>5.413615566330598</v>
       </c>
       <c r="D58">
         <v>56.246751084094</v>
@@ -22138,10 +22594,10 @@
         <v>42186</v>
       </c>
       <c r="B59">
-        <v>43.3637430887518</v>
+        <v>41.5147108270384</v>
       </c>
       <c r="C59">
-        <v>-8.737209852632105</v>
+        <v>-8.738876474188302</v>
       </c>
       <c r="D59">
         <v>44.1343379741132</v>
@@ -22254,10 +22710,10 @@
         <v>42278</v>
       </c>
       <c r="B60">
-        <v>38.1072449000917</v>
+        <v>39.8118250970731</v>
       </c>
       <c r="C60">
-        <v>-5.256498188660096</v>
+        <v>-1.702885729965303</v>
       </c>
       <c r="D60">
         <v>43.4765672593248</v>
@@ -22370,10 +22826,10 @@
         <v>42370</v>
       </c>
       <c r="B61">
-        <v>28.8601278238678</v>
+        <v>30.5017610632753</v>
       </c>
       <c r="C61">
-        <v>-9.247117076223901</v>
+        <v>-9.310064033797797</v>
       </c>
       <c r="D61">
         <v>35.4863805112972</v>
@@ -22486,10 +22942,10 @@
         <v>42461</v>
       </c>
       <c r="B62">
-        <v>40.9930462740026</v>
+        <v>39.0518839251241</v>
       </c>
       <c r="C62">
-        <v>12.1329184501348</v>
+        <v>8.550122861848802</v>
       </c>
       <c r="D62">
         <v>43.6044098413905</v>
@@ -22602,10 +23058,10 @@
         <v>42552</v>
       </c>
       <c r="B63">
-        <v>41.072367918394</v>
+        <v>40.4203009043113</v>
       </c>
       <c r="C63">
-        <v>0.0793216443913991</v>
+        <v>1.368416979187195</v>
       </c>
       <c r="D63">
         <v>43.426934647635</v>
@@ -22718,10 +23174,10 @@
         <v>42644</v>
       </c>
       <c r="B64">
-        <v>45.4731009389608</v>
+        <v>46.6403565109247</v>
       </c>
       <c r="C64">
-        <v>4.400733020566797</v>
+        <v>6.2200556066134</v>
       </c>
       <c r="D64">
         <v>49.97083228043</v>
@@ -22834,10 +23290,10 @@
         <v>42736</v>
       </c>
       <c r="B65">
-        <v>48.7456318873273</v>
+        <v>49.582965001214</v>
       </c>
       <c r="C65">
-        <v>3.272530948366501</v>
+        <v>2.942608490289302</v>
       </c>
       <c r="D65">
         <v>53.8565234926451</v>
@@ -22950,10 +23406,10 @@
         <v>42826</v>
       </c>
       <c r="B66">
-        <v>43.8404805933374</v>
+        <v>42.0767987776674</v>
       </c>
       <c r="C66">
-        <v>-4.905151293989896</v>
+        <v>-7.5061662235466</v>
       </c>
       <c r="D66">
         <v>46.4732705262485</v>
@@ -23066,10 +23522,10 @@
         <v>42917</v>
       </c>
       <c r="B67">
-        <v>44.6556176390902</v>
+        <v>45.089168799234</v>
       </c>
       <c r="C67">
-        <v>0.8151370457527989</v>
+        <v>3.012370021566603</v>
       </c>
       <c r="D67">
         <v>47.4868825195194</v>
@@ -23182,10 +23638,10 @@
         <v>43009</v>
       </c>
       <c r="B68">
-        <v>52.1129490808625</v>
+        <v>53.0030644315088</v>
       </c>
       <c r="C68">
-        <v>7.457331441772297</v>
+        <v>7.913895632274794</v>
       </c>
       <c r="D68">
         <v>56.0287593238766</v>
@@ -23298,10 +23754,10 @@
         <v>43101</v>
       </c>
       <c r="B69">
-        <v>60.2733300455926</v>
+        <v>60.0520755354638</v>
       </c>
       <c r="C69">
-        <v>8.160380964730102</v>
+        <v>7.049011103955003</v>
       </c>
       <c r="D69">
         <v>64.1085722586447</v>
@@ -23414,10 +23870,10 @@
         <v>43191</v>
       </c>
       <c r="B70">
-        <v>60.5405758917433</v>
+        <v>59.1545683597686</v>
       </c>
       <c r="C70">
-        <v>0.2672458461507006</v>
+        <v>-0.8975071756952033</v>
       </c>
       <c r="D70">
         <v>66.62654115399241</v>
@@ -23530,10 +23986,10 @@
         <v>43282</v>
       </c>
       <c r="B71">
-        <v>56.1862522603265</v>
+        <v>57.2933557410507</v>
       </c>
       <c r="C71">
-        <v>-4.354323631416804</v>
+        <v>-1.861212618717893</v>
       </c>
       <c r="D71">
         <v>69.56166614004771</v>
@@ -23646,10 +24102,10 @@
         <v>43374</v>
       </c>
       <c r="B72">
-        <v>47.0496718820951</v>
+        <v>47.9971482537867</v>
       </c>
       <c r="C72">
-        <v>-9.1365803782314</v>
+        <v>-9.296207487264006</v>
       </c>
       <c r="D72">
         <v>59.9023283406626</v>
@@ -23762,10 +24218,10 @@
         <v>43466</v>
       </c>
       <c r="B73">
-        <v>48.2998665301016</v>
+        <v>47.2599537611237</v>
       </c>
       <c r="C73">
-        <v>1.250194648006506</v>
+        <v>-0.7371944926630007</v>
       </c>
       <c r="D73">
         <v>55.2570980893146</v>
@@ -23878,10 +24334,10 @@
         <v>43556</v>
       </c>
       <c r="B74">
-        <v>54.8629905987944</v>
+        <v>53.6136809989574</v>
       </c>
       <c r="C74">
-        <v>6.563124068692794</v>
+        <v>6.353727237833702</v>
       </c>
       <c r="D74">
         <v>58.5198609341468</v>
@@ -23994,10 +24450,10 @@
         <v>43647</v>
       </c>
       <c r="B75">
-        <v>53.0596700573114</v>
+        <v>54.3655607338692</v>
       </c>
       <c r="C75">
-        <v>-1.803320541482996</v>
+        <v>0.7518797349118032</v>
       </c>
       <c r="D75">
         <v>56.2692109166733</v>
@@ -24110,10 +24566,10 @@
         <v>43739</v>
       </c>
       <c r="B76">
-        <v>55.2151417741463</v>
+        <v>56.5664305368948</v>
       </c>
       <c r="C76">
-        <v>2.155471716834903</v>
+        <v>2.200869803025597</v>
       </c>
       <c r="D76">
         <v>58.3971943524388</v>
@@ -24226,10 +24682,10 @@
         <v>43831</v>
       </c>
       <c r="B77">
-        <v>44.8285959278919</v>
+        <v>43.4657588820279</v>
       </c>
       <c r="C77">
-        <v>-10.38654584625441</v>
+        <v>-13.1006716548669</v>
       </c>
       <c r="D77">
         <v>45.6084540875805</v>
@@ -24342,10 +24798,10 @@
         <v>43922</v>
       </c>
       <c r="B78">
-        <v>21.8810359865692</v>
+        <v>20.3769262528916</v>
       </c>
       <c r="C78">
-        <v>-22.9475599413227</v>
+        <v>-23.0888326291363</v>
       </c>
       <c r="D78">
         <v>26.3276109175658</v>
@@ -24458,10 +24914,10 @@
         <v>44013</v>
       </c>
       <c r="B79">
-        <v>38.4500736107354</v>
+        <v>39.8119738613091</v>
       </c>
       <c r="C79">
-        <v>16.5690376241662</v>
+        <v>19.4350476084175</v>
       </c>
       <c r="D79">
         <v>41.0171656939656</v>
@@ -24574,10 +25030,10 @@
         <v>44105</v>
       </c>
       <c r="B80">
-        <v>40.0710022654658</v>
+        <v>41.660168537478</v>
       </c>
       <c r="C80">
-        <v>1.620928654730399</v>
+        <v>1.848194676168902</v>
       </c>
       <c r="D80">
         <v>44.1739016597805</v>
@@ -24690,10 +25146,10 @@
         <v>44197</v>
       </c>
       <c r="B81">
-        <v>56.5249213101973</v>
+        <v>55.3647698263721</v>
       </c>
       <c r="C81">
-        <v>16.4539190447315</v>
+        <v>13.7046012888941</v>
       </c>
       <c r="D81">
         <v>57.5924830623209</v>
@@ -24806,10 +25262,10 @@
         <v>44287</v>
       </c>
       <c r="B82">
-        <v>64.6132599431059</v>
+        <v>62.7488686123148</v>
       </c>
       <c r="C82">
-        <v>8.088338632908602</v>
+        <v>7.384098785942705</v>
       </c>
       <c r="D82">
         <v>64.2358330985561</v>
@@ -24922,10 +25378,10 @@
         <v>44378</v>
       </c>
       <c r="B83">
-        <v>69.1676445756398</v>
+        <v>70.32534447607389</v>
       </c>
       <c r="C83">
-        <v>4.554384632533896</v>
+        <v>7.576475863759093</v>
       </c>
       <c r="D83">
         <v>70.7868419487349</v>
@@ -25038,10 +25494,10 @@
         <v>44470</v>
       </c>
       <c r="B84">
-        <v>76.1956009378779</v>
+        <v>78.0171516672919</v>
       </c>
       <c r="C84">
-        <v>7.0279563622381</v>
+        <v>7.691807191218004</v>
       </c>
       <c r="D84">
         <v>79.4662818713615</v>
@@ -25154,10 +25610,10 @@
         <v>44562</v>
       </c>
       <c r="B85">
-        <v>94.10111322761961</v>
+        <v>93.2998266941089</v>
       </c>
       <c r="C85">
-        <v>17.90551228974171</v>
+        <v>15.282675026817</v>
       </c>
       <c r="D85">
         <v>94.306887704177</v>
@@ -25270,10 +25726,10 @@
         <v>44652</v>
       </c>
       <c r="B86">
-        <v>109.638960875086</v>
+        <v>107.532706936606</v>
       </c>
       <c r="C86">
-        <v>15.53784764746639</v>
+        <v>14.2328802424971</v>
       </c>
       <c r="D86">
         <v>106.562442635271</v>
@@ -25386,10 +25842,10 @@
         <v>44743</v>
       </c>
       <c r="B87">
-        <v>93.4024681336689</v>
+        <v>94.20035136665329</v>
       </c>
       <c r="C87">
-        <v>-16.23649274141709</v>
+        <v>-13.33235556995271</v>
       </c>
       <c r="D87">
         <v>93.363772029809</v>
@@ -25502,10 +25958,10 @@
         <v>44835</v>
       </c>
       <c r="B88">
-        <v>82.7092463468517</v>
+        <v>84.69540436522691</v>
       </c>
       <c r="C88">
-        <v>-10.6932217868172</v>
+        <v>-9.504947001426387</v>
       </c>
       <c r="D88">
         <v>84.8899912579583</v>
@@ -25618,10 +26074,10 @@
         <v>44927</v>
       </c>
       <c r="B89">
-        <v>74.9888844768809</v>
+        <v>74.607937565871</v>
       </c>
       <c r="C89">
-        <v>-7.720361869970802</v>
+        <v>-10.08746679935591</v>
       </c>
       <c r="D89">
         <v>76.1673796792745</v>
@@ -25734,10 +26190,10 @@
         <v>45017</v>
       </c>
       <c r="B90">
-        <v>74.403726447021</v>
+        <v>72.1315549783874</v>
       </c>
       <c r="C90">
-        <v>-0.5851580298598975</v>
+        <v>-2.476382587483599</v>
       </c>
       <c r="D90">
         <v>71.38344151033159</v>
@@ -25843,6 +26299,354 @@
       </c>
       <c r="AL90">
         <v>0.9221437219400799</v>
+      </c>
+    </row>
+    <row r="91" spans="1:38">
+      <c r="A91" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B91">
+        <v>27.6248361979644</v>
+      </c>
+      <c r="C91">
+        <v>-44.506718780423</v>
+      </c>
+      <c r="D91">
+        <v>28.8550851082635</v>
+      </c>
+      <c r="E91">
+        <v>-42.5283564020681</v>
+      </c>
+      <c r="F91">
+        <v>26.3145497348063</v>
+      </c>
+      <c r="G91">
+        <v>-49.251724261113</v>
+      </c>
+      <c r="H91">
+        <v>21.4312734045279</v>
+      </c>
+      <c r="I91">
+        <v>99.093091034688</v>
+      </c>
+      <c r="J91">
+        <v>0.2865856836508982</v>
+      </c>
+      <c r="K91">
+        <v>0.6675155325313966</v>
+      </c>
+      <c r="L91">
+        <v>79.21149507886381</v>
+      </c>
+      <c r="M91">
+        <v>-52.16755951529319</v>
+      </c>
+      <c r="N91">
+        <v>25.0000774462462</v>
+      </c>
+      <c r="O91">
+        <v>4.20587918264535</v>
+      </c>
+      <c r="P91">
+        <v>0.6594787969894997</v>
+      </c>
+      <c r="Q91">
+        <v>84.1558806960266</v>
+      </c>
+      <c r="R91">
+        <v>-34.23852787382739</v>
+      </c>
+      <c r="S91">
+        <v>0.654581027145683</v>
+      </c>
+      <c r="T91">
+        <v>0.501906055683043</v>
+      </c>
+      <c r="U91">
+        <v>27721.7119602669</v>
+      </c>
+      <c r="V91">
+        <v>-102.3420950051986</v>
+      </c>
+      <c r="W91">
+        <v>41610.6814086065</v>
+      </c>
+      <c r="X91">
+        <v>382.7693087652951</v>
+      </c>
+      <c r="Y91">
+        <v>0.640840422882774</v>
+      </c>
+      <c r="Z91">
+        <v>37.1180594772557</v>
+      </c>
+      <c r="AA91">
+        <v>35.8228864280561</v>
+      </c>
+      <c r="AB91">
+        <v>35.8228864280561</v>
+      </c>
+      <c r="AC91">
+        <v>1.29178722732669</v>
+      </c>
+      <c r="AD91">
+        <v>0.9911922396440089</v>
+      </c>
+      <c r="AE91">
+        <v>-1.48517221094902</v>
+      </c>
+      <c r="AF91">
+        <v>-1.48517221094902</v>
+      </c>
+      <c r="AG91">
+        <v>0.838972748091442</v>
+      </c>
+      <c r="AH91">
+        <v>2.09020182481131</v>
+      </c>
+      <c r="AI91">
+        <v>3954.23590009178</v>
+      </c>
+      <c r="AJ91">
+        <v>62.18860119245983</v>
+      </c>
+      <c r="AK91">
+        <v>4.78358312682778</v>
+      </c>
+      <c r="AL91">
+        <v>1.77993466415412</v>
+      </c>
+    </row>
+    <row r="92" spans="1:38">
+      <c r="A92" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B92">
+        <v>27.2968611059442</v>
+      </c>
+      <c r="C92">
+        <v>-0.3279750920201998</v>
+      </c>
+      <c r="D92">
+        <v>30.0368520900519</v>
+      </c>
+      <c r="E92">
+        <v>1.181766981788403</v>
+      </c>
+      <c r="F92">
+        <v>29.6275906513367</v>
+      </c>
+      <c r="G92">
+        <v>3.313040916530401</v>
+      </c>
+      <c r="H92">
+        <v>25.0660673902026</v>
+      </c>
+      <c r="I92">
+        <v>98.82208003065089</v>
+      </c>
+      <c r="J92">
+        <v>-0.2710110040371063</v>
+      </c>
+      <c r="K92">
+        <v>-0.5575966876880045</v>
+      </c>
+      <c r="L92">
+        <v>79.72741188843951</v>
+      </c>
+      <c r="M92">
+        <v>0.5159168095756996</v>
+      </c>
+      <c r="N92">
+        <v>25.9231531031175</v>
+      </c>
+      <c r="O92">
+        <v>4.43257252199211</v>
+      </c>
+      <c r="P92">
+        <v>0.2266933393467605</v>
+      </c>
+      <c r="Q92">
+        <v>84.69397793924141</v>
+      </c>
+      <c r="R92">
+        <v>0.538097243214807</v>
+      </c>
+      <c r="S92">
+        <v>1.48685646751813</v>
+      </c>
+      <c r="T92">
+        <v>0.8322754403724469</v>
+      </c>
+      <c r="U92">
+        <v>28619.0486889595</v>
+      </c>
+      <c r="V92">
+        <v>897.3367286926004</v>
+      </c>
+      <c r="W92">
+        <v>41977.8019390072</v>
+      </c>
+      <c r="X92">
+        <v>367.1205304007017</v>
+      </c>
+      <c r="Y92">
+        <v>0.544178463322183</v>
+      </c>
+      <c r="Z92">
+        <v>36.1964111035564</v>
+      </c>
+      <c r="AA92">
+        <v>34.0192807332221</v>
+      </c>
+      <c r="AB92">
+        <v>34.0192807332221</v>
+      </c>
+      <c r="AC92">
+        <v>1.63361377835858</v>
+      </c>
+      <c r="AD92">
+        <v>0.3418265510318901</v>
+      </c>
+      <c r="AE92">
+        <v>1.06819365164978</v>
+      </c>
+      <c r="AF92">
+        <v>1.06819365164978</v>
+      </c>
+      <c r="AG92">
+        <v>0.627166772988395</v>
+      </c>
+      <c r="AH92">
+        <v>1.90952483424169</v>
+      </c>
+      <c r="AI92">
+        <v>3977.99070929732</v>
+      </c>
+      <c r="AJ92">
+        <v>23.75480920553991</v>
+      </c>
+      <c r="AK92">
+        <v>4.25278481246589</v>
+      </c>
+      <c r="AL92">
+        <v>-0.5307983143618902</v>
+      </c>
+    </row>
+    <row r="93" spans="1:38">
+      <c r="A93" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B93">
+        <v>25.25484954969</v>
+      </c>
+      <c r="C93">
+        <v>-2.042011556254199</v>
+      </c>
+      <c r="D93">
+        <v>27.1125223199879</v>
+      </c>
+      <c r="E93">
+        <v>-2.924329770064002</v>
+      </c>
+      <c r="F93">
+        <v>25.5312832970638</v>
+      </c>
+      <c r="G93">
+        <v>-4.096307354272898</v>
+      </c>
+      <c r="H93">
+        <v>21.659933297945</v>
+      </c>
+      <c r="I93">
+        <v>98.5223651082604</v>
+      </c>
+      <c r="J93">
+        <v>-0.2997149223904927</v>
+      </c>
+      <c r="K93">
+        <v>-0.02870391835338637</v>
+      </c>
+      <c r="L93">
+        <v>79.9835046666736</v>
+      </c>
+      <c r="M93">
+        <v>0.2560927782340912</v>
+      </c>
+      <c r="N93">
+        <v>24.2165218543758</v>
+      </c>
+      <c r="O93">
+        <v>4.86240019906158</v>
+      </c>
+      <c r="P93">
+        <v>0.4298276770694693</v>
+      </c>
+      <c r="Q93">
+        <v>84.50609867618169</v>
+      </c>
+      <c r="R93">
+        <v>-0.1878792630597133</v>
+      </c>
+      <c r="S93">
+        <v>0.845143290628937</v>
+      </c>
+      <c r="T93">
+        <v>-0.6417131768891929</v>
+      </c>
+      <c r="U93">
+        <v>29364.6523511456</v>
+      </c>
+      <c r="V93">
+        <v>745.6036621860985</v>
+      </c>
+      <c r="W93">
+        <v>41931.872883468</v>
+      </c>
+      <c r="X93">
+        <v>-45.92905553919991</v>
+      </c>
+      <c r="Y93">
+        <v>-0.127283579424972</v>
+      </c>
+      <c r="Z93">
+        <v>32.7296469931388</v>
+      </c>
+      <c r="AA93">
+        <v>24.1286905723157</v>
+      </c>
+      <c r="AB93">
+        <v>24.1286905723157</v>
+      </c>
+      <c r="AC93">
+        <v>1.35832784862313</v>
+      </c>
+      <c r="AD93">
+        <v>-0.27528592973545</v>
+      </c>
+      <c r="AE93">
+        <v>3.8082068497764</v>
+      </c>
+      <c r="AF93">
+        <v>3.8082068497764</v>
+      </c>
+      <c r="AG93">
+        <v>-0.347597742695961</v>
+      </c>
+      <c r="AH93">
+        <v>2.10906307006702</v>
+      </c>
+      <c r="AI93">
+        <v>3969.42318735517</v>
+      </c>
+      <c r="AJ93">
+        <v>-8.567521942150051</v>
+      </c>
+      <c r="AK93">
+        <v>3.74854091417704</v>
+      </c>
+      <c r="AL93">
+        <v>-0.5042438982888502</v>
       </c>
     </row>
   </sheetData>
@@ -25852,7 +26656,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -26845,6 +27649,39 @@
         <v>-5.413929396407397</v>
       </c>
     </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B91">
+        <v>26.3145497348063</v>
+      </c>
+      <c r="C91">
+        <v>-49.251724261113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B92">
+        <v>29.6275906513367</v>
+      </c>
+      <c r="C92">
+        <v>3.313040916530401</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B93">
+        <v>25.5312832970638</v>
+      </c>
+      <c r="C93">
+        <v>-4.096307354272898</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -26853,7 +27690,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -27584,6 +28421,30 @@
         <v>81.9853284269209</v>
       </c>
     </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B92">
+        <v>21.4312734045279</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B93">
+        <v>25.0660673902026</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B94">
+        <v>21.659933297945</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -27592,7 +28453,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -28827,6 +29688,48 @@
         <v>0.06536510917379701</v>
       </c>
     </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B89">
+        <v>99.093091034688</v>
+      </c>
+      <c r="C89">
+        <v>0.2865856836508982</v>
+      </c>
+      <c r="D89">
+        <v>0.6675155325313966</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B90">
+        <v>98.82208003065089</v>
+      </c>
+      <c r="C90">
+        <v>-0.2710110040371063</v>
+      </c>
+      <c r="D90">
+        <v>-0.5575966876880045</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B91">
+        <v>98.5223651082604</v>
+      </c>
+      <c r="C91">
+        <v>-0.2997149223904927</v>
+      </c>
+      <c r="D91">
+        <v>-0.02870391835338637</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -28835,7 +29738,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -29828,6 +30731,39 @@
         <v>0.5897721492860057</v>
       </c>
     </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B91">
+        <v>79.21149507886381</v>
+      </c>
+      <c r="C91">
+        <v>-52.16755951529319</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B92">
+        <v>79.72741188843951</v>
+      </c>
+      <c r="C92">
+        <v>0.5159168095756996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B93">
+        <v>79.9835046666736</v>
+      </c>
+      <c r="C93">
+        <v>0.2560927782340912</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -29836,7 +30772,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -30829,6 +31765,39 @@
         <v>0.03157689535910002</v>
       </c>
     </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B91">
+        <v>4.20587918264535</v>
+      </c>
+      <c r="C91">
+        <v>0.6594787969894997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B92">
+        <v>4.43257252199211</v>
+      </c>
+      <c r="C92">
+        <v>0.2266933393467605</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B93">
+        <v>4.86240019906158</v>
+      </c>
+      <c r="C93">
+        <v>0.4298276770694693</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -30837,7 +31806,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -31568,6 +32537,30 @@
         <v>16.5437780675825</v>
       </c>
     </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B92">
+        <v>25.0000774462462</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B93">
+        <v>25.9231531031175</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B94">
+        <v>24.2165218543758</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -31576,7 +32569,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -32569,6 +33562,39 @@
         <v>-0.3999708521790097</v>
       </c>
     </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B91">
+        <v>84.1558806960266</v>
+      </c>
+      <c r="C91">
+        <v>-34.23852787382739</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B92">
+        <v>84.69397793924141</v>
+      </c>
+      <c r="C92">
+        <v>0.538097243214807</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B93">
+        <v>84.50609867618169</v>
+      </c>
+      <c r="C93">
+        <v>-0.1878792630597133</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
